--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.37787633333333</v>
+        <v>32.544082</v>
       </c>
       <c r="H2">
-        <v>130.133629</v>
+        <v>97.63224599999999</v>
       </c>
       <c r="I2">
-        <v>0.7368947826495649</v>
+        <v>0.621589875979724</v>
       </c>
       <c r="J2">
-        <v>0.7461349005127409</v>
+        <v>0.6366365948489335</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.164182666666667</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N2">
-        <v>27.492548</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O2">
-        <v>0.03970753467660135</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P2">
-        <v>0.04986509649035763</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q2">
-        <v>397.5227824107435</v>
+        <v>91.25400730501134</v>
       </c>
       <c r="R2">
-        <v>3577.705041696691</v>
+        <v>821.2860657451021</v>
       </c>
       <c r="S2">
-        <v>0.02926027513506421</v>
+        <v>0.01806483958560548</v>
       </c>
       <c r="T2">
-        <v>0.03720608880889122</v>
+        <v>0.01938919125514244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.37787633333333</v>
+        <v>32.544082</v>
       </c>
       <c r="H3">
-        <v>130.133629</v>
+        <v>97.63224599999999</v>
       </c>
       <c r="I3">
-        <v>0.7368947826495649</v>
+        <v>0.621589875979724</v>
       </c>
       <c r="J3">
-        <v>0.7461349005127409</v>
+        <v>0.6366365948489335</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>240.97284</v>
       </c>
       <c r="O3">
-        <v>0.3480374900289019</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P3">
-        <v>0.437068761984357</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q3">
-        <v>3484.296684404039</v>
+        <v>2614.07995491096</v>
       </c>
       <c r="R3">
-        <v>31358.67015963636</v>
+        <v>23526.71959419864</v>
       </c>
       <c r="S3">
-        <v>0.2564670105687478</v>
+        <v>0.5174888911077987</v>
       </c>
       <c r="T3">
-        <v>0.326112257240425</v>
+        <v>0.5554265253534711</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.37787633333333</v>
+        <v>32.544082</v>
       </c>
       <c r="H4">
-        <v>130.133629</v>
+        <v>97.63224599999999</v>
       </c>
       <c r="I4">
-        <v>0.7368947826495649</v>
+        <v>0.621589875979724</v>
       </c>
       <c r="J4">
-        <v>0.7461349005127409</v>
+        <v>0.6366365948489335</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.118916</v>
+        <v>0.112158</v>
       </c>
       <c r="N4">
-        <v>0.356748</v>
+        <v>0.336474</v>
       </c>
       <c r="O4">
-        <v>0.0005152517540683453</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P4">
-        <v>0.0006470580116016203</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q4">
-        <v>5.158323542054666</v>
+        <v>3.650079148955999</v>
       </c>
       <c r="R4">
-        <v>46.424911878492</v>
+        <v>32.850712340604</v>
       </c>
       <c r="S4">
-        <v>0.0003796863293240004</v>
+        <v>0.000722577520132997</v>
       </c>
       <c r="T4">
-        <v>0.0004827925651123469</v>
+        <v>0.0007755504092983419</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.37787633333333</v>
+        <v>32.544082</v>
       </c>
       <c r="H5">
-        <v>130.133629</v>
+        <v>97.63224599999999</v>
       </c>
       <c r="I5">
-        <v>0.7368947826495649</v>
+        <v>0.621589875979724</v>
       </c>
       <c r="J5">
-        <v>0.7461349005127409</v>
+        <v>0.6366365948489335</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,60 +744,60 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>141.03759</v>
+        <v>13.242315</v>
       </c>
       <c r="N5">
-        <v>282.07518</v>
+        <v>26.48463</v>
       </c>
       <c r="O5">
-        <v>0.6111025062823514</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P5">
-        <v>0.5116188600720092</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q5">
-        <v>6117.911137371369</v>
+        <v>430.9589852298299</v>
       </c>
       <c r="R5">
-        <v>36707.46682422821</v>
+        <v>2585.75391137898</v>
       </c>
       <c r="S5">
-        <v>0.4503182485435377</v>
+        <v>0.08531356776618688</v>
       </c>
       <c r="T5">
-        <v>0.3817366872602705</v>
+        <v>0.06104532783102155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>43.37787633333333</v>
+        <v>0.244247</v>
       </c>
       <c r="H6">
-        <v>130.133629</v>
+        <v>0.732741</v>
       </c>
       <c r="I6">
-        <v>0.7368947826495649</v>
+        <v>0.004665102012661462</v>
       </c>
       <c r="J6">
-        <v>0.7461349005127409</v>
+        <v>0.004778029332093849</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1470646666666666</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N6">
-        <v>0.441194</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O6">
-        <v>0.0006372172580769324</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P6">
-        <v>0.0008002234416746982</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q6">
-        <v>6.379352923669554</v>
+        <v>0.6848716003796668</v>
       </c>
       <c r="R6">
-        <v>57.41417631302599</v>
+        <v>6.163844403417001</v>
       </c>
       <c r="S6">
-        <v>0.0004695620728911528</v>
+        <v>0.0001355786552610512</v>
       </c>
       <c r="T6">
-        <v>0.0005970746380419141</v>
+        <v>0.0001455180636680665</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -856,10 +856,10 @@
         <v>0.732741</v>
       </c>
       <c r="I7">
-        <v>0.004149219721932329</v>
+        <v>0.004665102012661462</v>
       </c>
       <c r="J7">
-        <v>0.00420124788141124</v>
+        <v>0.004778029332093849</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.164182666666667</v>
+        <v>80.32428</v>
       </c>
       <c r="N7">
-        <v>27.492548</v>
+        <v>240.97284</v>
       </c>
       <c r="O7">
-        <v>0.03970753467660135</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P7">
-        <v>0.04986509649035763</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q7">
-        <v>2.238324123785334</v>
+        <v>19.61896441716</v>
       </c>
       <c r="R7">
-        <v>20.144917114068</v>
+        <v>176.57067975444</v>
       </c>
       <c r="S7">
-        <v>0.0001647552859894661</v>
+        <v>0.003883812399022548</v>
       </c>
       <c r="T7">
-        <v>0.000209495630986482</v>
+        <v>0.004168538615961245</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -918,40 +918,40 @@
         <v>0.732741</v>
       </c>
       <c r="I8">
-        <v>0.004149219721932329</v>
+        <v>0.004665102012661462</v>
       </c>
       <c r="J8">
-        <v>0.00420124788141124</v>
+        <v>0.004778029332093849</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>80.32428</v>
+        <v>0.112158</v>
       </c>
       <c r="N8">
-        <v>240.97284</v>
+        <v>0.336474</v>
       </c>
       <c r="O8">
-        <v>0.3480374900289019</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P8">
-        <v>0.437068761984357</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q8">
-        <v>19.61896441716</v>
+        <v>0.027394255026</v>
       </c>
       <c r="R8">
-        <v>176.57067975444</v>
+        <v>0.246548295234</v>
       </c>
       <c r="S8">
-        <v>0.001444084017599746</v>
+        <v>5.423025653632636E-06</v>
       </c>
       <c r="T8">
-        <v>0.001836234210317813</v>
+        <v>5.820593151771561E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,45 +980,45 @@
         <v>0.732741</v>
       </c>
       <c r="I9">
-        <v>0.004149219721932329</v>
+        <v>0.004665102012661462</v>
       </c>
       <c r="J9">
-        <v>0.00420124788141124</v>
+        <v>0.004778029332093849</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.118916</v>
+        <v>13.242315</v>
       </c>
       <c r="N9">
-        <v>0.356748</v>
+        <v>26.48463</v>
       </c>
       <c r="O9">
-        <v>0.0005152517540683453</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P9">
-        <v>0.0006470580116016203</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q9">
-        <v>0.029044876252</v>
+        <v>3.234395711805</v>
       </c>
       <c r="R9">
-        <v>0.261403886268</v>
+        <v>19.40637427083</v>
       </c>
       <c r="S9">
-        <v>2.137892739740604E-06</v>
+        <v>0.0006402879327242308</v>
       </c>
       <c r="T9">
-        <v>2.718451100391477E-06</v>
+        <v>0.000458152059312766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,87 +1027,87 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.244247</v>
+        <v>6.619872666666667</v>
       </c>
       <c r="H10">
-        <v>0.732741</v>
+        <v>19.859618</v>
       </c>
       <c r="I10">
-        <v>0.004149219721932329</v>
+        <v>0.126439142756428</v>
       </c>
       <c r="J10">
-        <v>0.00420124788141124</v>
+        <v>0.1294998332673878</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.03759</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N10">
-        <v>282.07518</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O10">
-        <v>0.6111025062823514</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P10">
-        <v>0.5116188600720092</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q10">
-        <v>34.44800824473</v>
+        <v>18.56220460242956</v>
       </c>
       <c r="R10">
-        <v>206.68804946838</v>
+        <v>167.0598414218661</v>
       </c>
       <c r="S10">
-        <v>0.002535598571189008</v>
+        <v>0.003674613952867612</v>
       </c>
       <c r="T10">
-        <v>0.002149437651967562</v>
+        <v>0.003944003620034199</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.244247</v>
+        <v>6.619872666666667</v>
       </c>
       <c r="H11">
-        <v>0.732741</v>
+        <v>19.859618</v>
       </c>
       <c r="I11">
-        <v>0.004149219721932329</v>
+        <v>0.126439142756428</v>
       </c>
       <c r="J11">
-        <v>0.00420124788141124</v>
+        <v>0.1294998332673878</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1470646666666666</v>
+        <v>80.32428</v>
       </c>
       <c r="N11">
-        <v>0.441194</v>
+        <v>240.97284</v>
       </c>
       <c r="O11">
-        <v>0.0006372172580769324</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P11">
-        <v>0.0008002234416746982</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q11">
-        <v>0.03592010363933333</v>
+        <v>531.73650564168</v>
       </c>
       <c r="R11">
-        <v>0.323280932754</v>
+        <v>4785.62855077512</v>
       </c>
       <c r="S11">
-        <v>2.64395441436845E-06</v>
+        <v>0.1052637024927654</v>
       </c>
       <c r="T11">
-        <v>3.361937038991437E-06</v>
+        <v>0.1129806910371319</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.648633666666666</v>
+        <v>6.619872666666667</v>
       </c>
       <c r="H12">
-        <v>22.945901</v>
+        <v>19.859618</v>
       </c>
       <c r="I12">
-        <v>0.129933475766617</v>
+        <v>0.126439142756428</v>
       </c>
       <c r="J12">
-        <v>0.1315627458587988</v>
+        <v>0.1294998332673878</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>9.164182666666667</v>
+        <v>0.112158</v>
       </c>
       <c r="N12">
-        <v>27.492548</v>
+        <v>0.336474</v>
       </c>
       <c r="O12">
-        <v>0.03970753467660135</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P12">
-        <v>0.04986509649035763</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q12">
-        <v>70.09347607174978</v>
+        <v>0.742471678548</v>
       </c>
       <c r="R12">
-        <v>630.8412846457479</v>
+        <v>6.682245106932</v>
       </c>
       <c r="S12">
-        <v>0.005159337994654287</v>
+        <v>0.0001469812906406827</v>
       </c>
       <c r="T12">
-        <v>0.006560389016785398</v>
+        <v>0.0001577566377855193</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.648633666666666</v>
+        <v>6.619872666666667</v>
       </c>
       <c r="H13">
-        <v>22.945901</v>
+        <v>19.859618</v>
       </c>
       <c r="I13">
-        <v>0.129933475766617</v>
+        <v>0.126439142756428</v>
       </c>
       <c r="J13">
-        <v>0.1315627458587988</v>
+        <v>0.1294998332673878</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.32428</v>
+        <v>13.242315</v>
       </c>
       <c r="N13">
-        <v>240.97284</v>
+        <v>26.48463</v>
       </c>
       <c r="O13">
-        <v>0.3480374900289019</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P13">
-        <v>0.437068761984357</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q13">
-        <v>614.37099225876</v>
+        <v>87.66243911189</v>
       </c>
       <c r="R13">
-        <v>5529.33893032884</v>
+        <v>525.97463467134</v>
       </c>
       <c r="S13">
-        <v>0.04522172077654455</v>
+        <v>0.01735384502015436</v>
       </c>
       <c r="T13">
-        <v>0.05750196645576776</v>
+        <v>0.0124173819724362</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.648633666666666</v>
+        <v>3.71227</v>
       </c>
       <c r="H14">
-        <v>22.945901</v>
+        <v>7.42454</v>
       </c>
       <c r="I14">
-        <v>0.129933475766617</v>
+        <v>0.07090411857072049</v>
       </c>
       <c r="J14">
-        <v>0.1315627458587988</v>
+        <v>0.04841365488938666</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.118916</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N14">
-        <v>0.356748</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O14">
-        <v>0.0005152517540683453</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P14">
-        <v>0.0006470580116016203</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q14">
-        <v>0.9095449211053334</v>
+        <v>10.40925086466334</v>
       </c>
       <c r="R14">
-        <v>8.185904289948001</v>
+        <v>62.45550518798002</v>
       </c>
       <c r="S14">
-        <v>6.694845130094626E-05</v>
+        <v>0.002060637692851672</v>
       </c>
       <c r="T14">
-        <v>8.512872873624363E-05</v>
+        <v>0.001474470084826844</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,117 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.648633666666666</v>
+        <v>3.71227</v>
       </c>
       <c r="H15">
-        <v>22.945901</v>
+        <v>7.42454</v>
       </c>
       <c r="I15">
-        <v>0.129933475766617</v>
+        <v>0.07090411857072049</v>
       </c>
       <c r="J15">
-        <v>0.1315627458587988</v>
+        <v>0.04841365488938666</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>141.03759</v>
+        <v>80.32428</v>
       </c>
       <c r="N15">
-        <v>282.07518</v>
+        <v>240.97284</v>
       </c>
       <c r="O15">
-        <v>0.6111025062823514</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P15">
-        <v>0.5116188600720092</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q15">
-        <v>1078.74485913953</v>
+        <v>298.1854149156</v>
       </c>
       <c r="R15">
-        <v>6472.469154837179</v>
+        <v>1789.1124894936</v>
       </c>
       <c r="S15">
-        <v>0.07940267269095684</v>
+        <v>0.05902942617317484</v>
       </c>
       <c r="T15">
-        <v>0.06730998206422208</v>
+        <v>0.04223795542456189</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.648633666666666</v>
+        <v>3.71227</v>
       </c>
       <c r="H16">
-        <v>22.945901</v>
+        <v>7.42454</v>
       </c>
       <c r="I16">
-        <v>0.129933475766617</v>
+        <v>0.07090411857072049</v>
       </c>
       <c r="J16">
-        <v>0.1315627458587988</v>
+        <v>0.04841365488938666</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1470646666666666</v>
+        <v>0.112158</v>
       </c>
       <c r="N16">
-        <v>0.441194</v>
+        <v>0.336474</v>
       </c>
       <c r="O16">
-        <v>0.0006372172580769324</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P16">
-        <v>0.0008002234416746982</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q16">
-        <v>1.124843760643778</v>
+        <v>0.41636077866</v>
       </c>
       <c r="R16">
-        <v>10.123593845794</v>
+        <v>2.49816467196</v>
       </c>
       <c r="S16">
-        <v>8.279585316040925E-05</v>
+        <v>8.242367539093961E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001052795932873016</v>
+        <v>5.897749229134719E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.186977</v>
+        <v>3.71227</v>
       </c>
       <c r="H17">
-        <v>4.373953999999999</v>
+        <v>7.42454</v>
       </c>
       <c r="I17">
-        <v>0.03715193267394235</v>
+        <v>0.07090411857072049</v>
       </c>
       <c r="J17">
-        <v>0.02507852703191198</v>
+        <v>0.04841365488938666</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.164182666666667</v>
+        <v>13.242315</v>
       </c>
       <c r="N17">
-        <v>27.492548</v>
+        <v>26.48463</v>
       </c>
       <c r="O17">
-        <v>0.03970753467660135</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P17">
-        <v>0.04986509649035763</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q17">
-        <v>20.04185671579867</v>
+        <v>49.15904870505</v>
       </c>
       <c r="R17">
-        <v>120.251140294792</v>
+        <v>196.6361948202</v>
       </c>
       <c r="S17">
-        <v>0.001475211654953325</v>
+        <v>0.009731631029303042</v>
       </c>
       <c r="T17">
-        <v>0.001250543170282333</v>
+        <v>0.004642251887706576</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.186977</v>
+        <v>9.235725333333333</v>
       </c>
       <c r="H18">
-        <v>4.373953999999999</v>
+        <v>27.707176</v>
       </c>
       <c r="I18">
-        <v>0.03715193267394235</v>
+        <v>0.176401760680466</v>
       </c>
       <c r="J18">
-        <v>0.02507852703191198</v>
+        <v>0.1806718876621981</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>80.32428</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N18">
-        <v>240.97284</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O18">
-        <v>0.3480374900289019</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P18">
-        <v>0.437068761984357</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q18">
-        <v>175.66735290156</v>
+        <v>25.89708774194578</v>
       </c>
       <c r="R18">
-        <v>1054.00411740936</v>
+        <v>233.073789677512</v>
       </c>
       <c r="S18">
-        <v>0.01293026539756165</v>
+        <v>0.00512664319747533</v>
       </c>
       <c r="T18">
-        <v>0.010961040762229</v>
+        <v>0.005502482597848793</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.186977</v>
+        <v>9.235725333333333</v>
       </c>
       <c r="H19">
-        <v>4.373953999999999</v>
+        <v>27.707176</v>
       </c>
       <c r="I19">
-        <v>0.03715193267394235</v>
+        <v>0.176401760680466</v>
       </c>
       <c r="J19">
-        <v>0.02507852703191198</v>
+        <v>0.1806718876621981</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.118916</v>
+        <v>80.32428</v>
       </c>
       <c r="N19">
-        <v>0.356748</v>
+        <v>240.97284</v>
       </c>
       <c r="O19">
-        <v>0.0005152517540683453</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P19">
-        <v>0.0006470580116016203</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q19">
-        <v>0.260066556932</v>
+        <v>741.85298767776</v>
       </c>
       <c r="R19">
-        <v>1.560399341592</v>
+        <v>6676.676889099839</v>
       </c>
       <c r="S19">
-        <v>1.914259847727787E-05</v>
+        <v>0.1468588132651236</v>
       </c>
       <c r="T19">
-        <v>1.622726183516645E-05</v>
+        <v>0.1576251814696252</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,427 +1647,117 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.186977</v>
+        <v>9.235725333333333</v>
       </c>
       <c r="H20">
-        <v>4.373953999999999</v>
+        <v>27.707176</v>
       </c>
       <c r="I20">
-        <v>0.03715193267394235</v>
+        <v>0.176401760680466</v>
       </c>
       <c r="J20">
-        <v>0.02507852703191198</v>
+        <v>0.1806718876621981</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>141.03759</v>
+        <v>0.112158</v>
       </c>
       <c r="N20">
-        <v>282.07518</v>
+        <v>0.336474</v>
       </c>
       <c r="O20">
-        <v>0.6111025062823514</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P20">
-        <v>0.5116188600720092</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q20">
-        <v>308.4459654654299</v>
+        <v>1.035860481936</v>
       </c>
       <c r="R20">
-        <v>1233.78386186172</v>
+        <v>9.322744337423998</v>
       </c>
       <c r="S20">
-        <v>0.02270363917027935</v>
+        <v>0.0002050611692777045</v>
       </c>
       <c r="T20">
-        <v>0.01283064741235188</v>
+        <v>0.0002200944110955021</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.186977</v>
+        <v>9.235725333333333</v>
       </c>
       <c r="H21">
-        <v>4.373953999999999</v>
+        <v>27.707176</v>
       </c>
       <c r="I21">
-        <v>0.03715193267394235</v>
+        <v>0.176401760680466</v>
       </c>
       <c r="J21">
-        <v>0.02507852703191198</v>
+        <v>0.1806718876621981</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1470646666666666</v>
+        <v>13.242315</v>
       </c>
       <c r="N21">
-        <v>0.441194</v>
+        <v>26.48463</v>
       </c>
       <c r="O21">
-        <v>0.0006372172580769324</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P21">
-        <v>0.0008002234416746982</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q21">
-        <v>0.3216270435126666</v>
+        <v>122.30238411748</v>
       </c>
       <c r="R21">
-        <v>1.929762261076</v>
+        <v>733.8143047048799</v>
       </c>
       <c r="S21">
-        <v>2.367385267074834E-05</v>
+        <v>0.02421124304858937</v>
       </c>
       <c r="T21">
-        <v>2.006842521360856E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>5.408032666666666</v>
-      </c>
-      <c r="H22">
-        <v>16.224098</v>
-      </c>
-      <c r="I22">
-        <v>0.09187058918794343</v>
-      </c>
-      <c r="J22">
-        <v>0.09302257871513718</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>9.164182666666667</v>
-      </c>
-      <c r="N22">
-        <v>27.492548</v>
-      </c>
-      <c r="O22">
-        <v>0.03970753467660135</v>
-      </c>
-      <c r="P22">
-        <v>0.04986509649035763</v>
-      </c>
-      <c r="Q22">
-        <v>49.56019922463378</v>
-      </c>
-      <c r="R22">
-        <v>446.0417930217039</v>
-      </c>
-      <c r="S22">
-        <v>0.00364795460594006</v>
-      </c>
-      <c r="T22">
-        <v>0.004638579863412203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>5.408032666666666</v>
-      </c>
-      <c r="H23">
-        <v>16.224098</v>
-      </c>
-      <c r="I23">
-        <v>0.09187058918794343</v>
-      </c>
-      <c r="J23">
-        <v>0.09302257871513718</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>80.32428</v>
-      </c>
-      <c r="N23">
-        <v>240.97284</v>
-      </c>
-      <c r="O23">
-        <v>0.3480374900289019</v>
-      </c>
-      <c r="P23">
-        <v>0.437068761984357</v>
-      </c>
-      <c r="Q23">
-        <v>434.39633016648</v>
-      </c>
-      <c r="R23">
-        <v>3909.566971498319</v>
-      </c>
-      <c r="S23">
-        <v>0.03197440926844821</v>
-      </c>
-      <c r="T23">
-        <v>0.0406572633156174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>5.408032666666666</v>
-      </c>
-      <c r="H24">
-        <v>16.224098</v>
-      </c>
-      <c r="I24">
-        <v>0.09187058918794343</v>
-      </c>
-      <c r="J24">
-        <v>0.09302257871513718</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.118916</v>
-      </c>
-      <c r="N24">
-        <v>0.356748</v>
-      </c>
-      <c r="O24">
-        <v>0.0005152517540683453</v>
-      </c>
-      <c r="P24">
-        <v>0.0006470580116016203</v>
-      </c>
-      <c r="Q24">
-        <v>0.6431016125893333</v>
-      </c>
-      <c r="R24">
-        <v>5.787914513303999</v>
-      </c>
-      <c r="S24">
-        <v>4.733648222638021E-05</v>
-      </c>
-      <c r="T24">
-        <v>6.019100481747187E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>5.408032666666666</v>
-      </c>
-      <c r="H25">
-        <v>16.224098</v>
-      </c>
-      <c r="I25">
-        <v>0.09187058918794343</v>
-      </c>
-      <c r="J25">
-        <v>0.09302257871513718</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>141.03759</v>
-      </c>
-      <c r="N25">
-        <v>282.07518</v>
-      </c>
-      <c r="O25">
-        <v>0.6111025062823514</v>
-      </c>
-      <c r="P25">
-        <v>0.5116188600720092</v>
-      </c>
-      <c r="Q25">
-        <v>762.7358939479399</v>
-      </c>
-      <c r="R25">
-        <v>4576.415363687639</v>
-      </c>
-      <c r="S25">
-        <v>0.05614234730638852</v>
-      </c>
-      <c r="T25">
-        <v>0.04759210568319723</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>5.408032666666666</v>
-      </c>
-      <c r="H26">
-        <v>16.224098</v>
-      </c>
-      <c r="I26">
-        <v>0.09187058918794343</v>
-      </c>
-      <c r="J26">
-        <v>0.09302257871513718</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.1470646666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.441194</v>
-      </c>
-      <c r="O26">
-        <v>0.0006372172580769324</v>
-      </c>
-      <c r="P26">
-        <v>0.0008002234416746982</v>
-      </c>
-      <c r="Q26">
-        <v>0.7953305214457776</v>
-      </c>
-      <c r="R26">
-        <v>7.157974693011998</v>
-      </c>
-      <c r="S26">
-        <v>5.854152494025358E-05</v>
-      </c>
-      <c r="T26">
-        <v>7.44388480928826E-05</v>
+        <v>0.01732412918362865</v>
       </c>
     </row>
   </sheetData>
